--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2520.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2520.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.532122119688848</v>
+        <v>2.356678009033203</v>
       </c>
       <c r="B1">
-        <v>3.38134653277384</v>
+        <v>2.639779806137085</v>
       </c>
       <c r="C1">
-        <v>3.818992536240778</v>
+        <v>2.681990146636963</v>
       </c>
       <c r="D1">
-        <v>1.967227305396852</v>
+        <v>3.404010534286499</v>
       </c>
       <c r="E1">
-        <v>1.992785799015367</v>
+        <v>1.93707799911499</v>
       </c>
     </row>
   </sheetData>
